--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,85 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +789,14 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +842,14 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +895,14 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +920,63 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>200</v>
-      </c>
-      <c r="L12" s="3">
-        <v>200</v>
       </c>
       <c r="M12" s="3">
         <v>200</v>
       </c>
       <c r="N12" s="3">
+        <v>200</v>
+      </c>
+      <c r="O12" s="3">
+        <v>200</v>
+      </c>
+      <c r="P12" s="3">
         <v>500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1022,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1000,44 +1039,50 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1128,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1150,63 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,46 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-7300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-2400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1277,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1227,40 +1294,46 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,46 +1341,52 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-4100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1332,11 +1411,11 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1353,55 +1432,67 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-3700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-7100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-3300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1538,14 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1591,120 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-3700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-4100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-7100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-3700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-4100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-7100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-3200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1750,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1803,14 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1856,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1909,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1791,87 +1930,99 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-3700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-4100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-7100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-3200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +2068,125 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-3700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-4100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-7100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-3200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2204,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,78 +2225,86 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F41" s="3">
         <v>7800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>9200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>102700</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>80200</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2148,8 +2327,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,13 +2342,13 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -2178,25 +2363,31 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,107 +2433,125 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
       </c>
-      <c r="E45" s="3">
-        <v>500</v>
-      </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>116900</v>
+      </c>
+      <c r="F46" s="3">
         <v>8300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
         <v>200</v>
@@ -2354,10 +2563,10 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J47" s="3">
         <v>300</v>
@@ -2371,11 +2580,11 @@
       <c r="M47" s="3">
         <v>300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
+      <c r="N47" s="3">
+        <v>300</v>
+      </c>
+      <c r="O47" s="3">
+        <v>300</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>4</v>
@@ -2383,8 +2592,14 @@
       <c r="Q47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2419,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
@@ -2430,8 +2645,14 @@
       <c r="Q48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>500</v>
+      </c>
+      <c r="S48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2698,14 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2751,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2804,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2607,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -2618,8 +2857,14 @@
       <c r="Q52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2910,67 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>117100</v>
+      </c>
+      <c r="F54" s="3">
         <v>8500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2988,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,196 +3009,222 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>1300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E59" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F59" s="3">
         <v>1000</v>
       </c>
       <c r="G59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>7100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1200</v>
       </c>
       <c r="O60" s="3">
         <v>1400</v>
       </c>
       <c r="P60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2956,26 +3241,26 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>3200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -2985,8 +3270,14 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3011,20 +3302,20 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>100</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
@@ -3032,8 +3323,14 @@
       <c r="Q62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>100</v>
+      </c>
+      <c r="S62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3376,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3429,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3482,67 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>8600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3560,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3609,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3662,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3715,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3768,67 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-119900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-115300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-111700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-107500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-104900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-97700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-94300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-91000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-87800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-86400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-85400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-83700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-81800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-80700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3874,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3927,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3980,67 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>115700</v>
+      </c>
+      <c r="F76" s="3">
         <v>6000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-8700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-5500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +4086,125 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-3700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-4100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-7100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-3200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4222,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4271,14 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4324,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4377,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4430,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4483,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4536,67 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-2000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4614,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4195,11 +4636,11 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4222,8 +4663,14 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4716,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,19 +4769,25 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
+      <c r="D94" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -4363,8 +4822,14 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4847,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4896,14 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4949,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +5002,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +5055,67 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>112500</v>
+      </c>
+      <c r="F100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-100</v>
-      </c>
       <c r="O100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +5161,63 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>7200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>3000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,40 +935,41 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E12" s="3">
         <v>4500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1300</v>
       </c>
       <c r="I12" s="3">
         <v>1300</v>
       </c>
       <c r="J12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>200</v>
       </c>
       <c r="N12" s="3">
         <v>200</v>
@@ -964,19 +978,22 @@
         <v>200</v>
       </c>
       <c r="P12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,37 +1045,40 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1066,12 +1086,12 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>10000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-4600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1300,20 +1334,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1321,19 +1355,22 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-2700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1417,8 +1457,8 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1936,20 +2006,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1957,72 +2027,78 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,73 +2313,77 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E41" s="3">
         <v>12200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E42" s="3">
         <v>102700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>80200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2306,8 +2396,8 @@
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2348,10 +2441,10 @@
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2369,25 +2462,28 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,105 +2547,111 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>400</v>
       </c>
       <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
       </c>
       <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E46" s="3">
         <v>115200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>116900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2554,7 +2659,7 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
         <v>200</v>
@@ -2569,7 +2674,7 @@
         <v>200</v>
       </c>
       <c r="J47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K47" s="3">
         <v>300</v>
@@ -2586,8 +2691,8 @@
       <c r="O47" s="3">
         <v>300</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
+      <c r="P47" s="3">
+        <v>300</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>4</v>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2640,7 +2748,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2852,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>134600</v>
+      </c>
+      <c r="E54" s="3">
         <v>115400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>117100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,167 +3141,177 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3319,55 @@
         <v>2300</v>
       </c>
       <c r="E60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3247,23 +3390,23 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>3200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3308,17 +3454,17 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="3">
         <v>100</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,52 +3655,55 @@
         <v>2300</v>
       </c>
       <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1400</v>
       </c>
       <c r="P66" s="3">
         <v>1400</v>
       </c>
       <c r="Q66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R66" s="3">
         <v>1600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-141700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-130500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-119900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-115300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-111700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-107500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-104900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-94300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-91000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-87800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-86400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-85400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-83700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-81800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-80700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>132200</v>
+      </c>
+      <c r="E76" s="3">
         <v>113200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-8700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
-      </c>
-      <c r="N76" s="3">
-        <v>1500</v>
       </c>
       <c r="O76" s="3">
         <v>1500</v>
       </c>
       <c r="P76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-1000</v>
       </c>
       <c r="O89" s="3">
         <v>-1000</v>
       </c>
       <c r="P89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,34 +4836,35 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,22 +5002,25 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23600</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,49 +5304,52 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>112500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
-      </c>
-      <c r="J100" s="3">
-        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>300</v>
       </c>
       <c r="L100" s="3">
+        <v>300</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-100</v>
@@ -5112,10 +5358,13 @@
         <v>-100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>28400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,93 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,43 +949,44 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E12" s="3">
         <v>5300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>4500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
       </c>
       <c r="J12" s="3">
         <v>1300</v>
       </c>
       <c r="K12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1700</v>
-      </c>
-      <c r="N12" s="3">
-        <v>200</v>
       </c>
       <c r="O12" s="3">
         <v>200</v>
@@ -981,19 +995,22 @@
         <v>200</v>
       </c>
       <c r="Q12" s="3">
+        <v>200</v>
+      </c>
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,29 +1079,29 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1089,12 +1109,12 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,64 +1205,68 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,55 +1274,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-10000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1356,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1337,20 +1371,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1358,19 +1392,22 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,55 +1415,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-10700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-4100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1460,8 +1500,8 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
@@ -1481,64 +1521,70 @@
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-11100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-11100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,11 +2064,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2009,20 +2079,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2030,75 +2100,81 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,79 +2400,83 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E41" s="3">
         <v>13800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>12200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E42" s="3">
         <v>120300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>80200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2399,8 +2489,8 @@
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2426,8 +2516,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2444,10 +2537,10 @@
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -2465,25 +2558,28 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,120 +2634,129 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
       </c>
       <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E46" s="3">
         <v>134400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>115200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>116900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>2300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
@@ -2677,7 +2782,7 @@
         <v>200</v>
       </c>
       <c r="K47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L47" s="3">
         <v>300</v>
@@ -2694,8 +2799,8 @@
       <c r="P47" s="3">
         <v>300</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
+      <c r="Q47" s="3">
+        <v>300</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>4</v>
@@ -2706,8 +2811,11 @@
       <c r="T47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2751,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>500</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2975,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125600</v>
+      </c>
+      <c r="E54" s="3">
         <v>134600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>117100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,232 +3272,245 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="E60" s="3">
         <v>2300</v>
       </c>
       <c r="F60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3393,23 +3536,23 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>3200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3457,17 +3603,17 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R62" s="3">
         <v>100</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>3400</v>
       </c>
       <c r="E66" s="3">
         <v>2300</v>
       </c>
       <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1400</v>
       </c>
       <c r="Q66" s="3">
         <v>1400</v>
       </c>
       <c r="R66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S66" s="3">
         <v>1600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-158600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-141700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-130500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-119900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-115300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-111700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-107500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-104900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-94300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-91000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-87800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-86400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-85400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-83700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-81800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-80700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122200</v>
+      </c>
+      <c r="E76" s="3">
         <v>132200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>113200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>6000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-8700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-5500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1500</v>
       </c>
       <c r="P76" s="3">
         <v>1500</v>
       </c>
       <c r="Q76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R76" s="3">
         <v>2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-1000</v>
       </c>
       <c r="P89" s="3">
         <v>-1000</v>
       </c>
       <c r="Q89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R89" s="3">
         <v>-1900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,11 +5084,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,25 +5232,28 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23600</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,52 +5550,55 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
         <v>22900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>112500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>300</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
@@ -5361,10 +5607,13 @@
         <v>-100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>28400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -3337,8 +3337,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,14 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -868,8 +881,14 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +946,14 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +975,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F12" s="3">
         <v>11200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1700</v>
-      </c>
-      <c r="O12" s="3">
-        <v>200</v>
-      </c>
-      <c r="P12" s="3">
-        <v>200</v>
       </c>
       <c r="Q12" s="3">
         <v>200</v>
       </c>
       <c r="R12" s="3">
+        <v>200</v>
+      </c>
+      <c r="S12" s="3">
+        <v>200</v>
+      </c>
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1101,14 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1082,8 +1121,8 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1091,44 +1130,50 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1231,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,67 +1257,75 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F17" s="3">
         <v>17200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>12800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,58 +1333,64 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-12800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-4600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-7300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-2400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1412,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1356,17 +1423,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1374,40 +1441,46 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,58 +1488,64 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="G21" s="3">
         <v>-11100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-10700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-4500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-3700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-4100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1503,11 +1582,11 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
@@ -1524,67 +1603,79 @@
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-16900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-10700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-3300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-3200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1733,14 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1798,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-16900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-10700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-3200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-16900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-10700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-3700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-3200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1993,14 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2058,14 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2123,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2188,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2064,17 +2203,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2082,99 +2221,111 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-16900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-10700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-3200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2383,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-16900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-10700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-3200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2547,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,88 +2572,96 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F41" s="3">
         <v>7500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>13800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>12200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>9200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>98900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>114600</v>
+      </c>
+      <c r="F42" s="3">
         <v>115600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>120300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>102700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>80200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2492,11 +2671,11 @@
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2519,8 +2698,14 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2540,13 +2725,13 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -2561,25 +2746,31 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
-        <v>0</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,126 +2828,144 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>900</v>
+      </c>
+      <c r="F45" s="3">
         <v>2200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>103800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>118100</v>
+      </c>
+      <c r="F46" s="3">
         <v>125500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>134400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>115200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>116900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>8300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>7000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2770,10 +2979,10 @@
         <v>100</v>
       </c>
       <c r="G47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2785,10 +2994,10 @@
         <v>200</v>
       </c>
       <c r="L47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N47" s="3">
         <v>300</v>
@@ -2802,11 +3011,11 @@
       <c r="Q47" s="3">
         <v>300</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
+      <c r="R47" s="3">
+        <v>300</v>
+      </c>
+      <c r="S47" s="3">
+        <v>300</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>4</v>
@@ -2814,8 +3023,14 @@
       <c r="U47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2862,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
@@ -2873,8 +3088,14 @@
       <c r="U48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>500</v>
+      </c>
+      <c r="W48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3153,14 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3218,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3283,14 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3098,10 +3337,10 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T52" s="3">
         <v>400</v>
@@ -3109,8 +3348,14 @@
       <c r="U52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>400</v>
+      </c>
+      <c r="W52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3413,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>118200</v>
+      </c>
+      <c r="F54" s="3">
         <v>125600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>134600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>115400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>117100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>6600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3507,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,244 +3532,270 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1300</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>4400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F60" s="3">
         <v>3400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>4600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1200</v>
       </c>
       <c r="S60" s="3">
         <v>1400</v>
       </c>
       <c r="T60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3539,26 +3824,26 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>3200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -3568,8 +3853,14 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3606,20 +3897,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>100</v>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T62" s="3">
         <v>100</v>
@@ -3627,8 +3918,14 @@
       <c r="U62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>100</v>
+      </c>
+      <c r="W62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3983,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +4048,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +4113,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>8600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4207,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4268,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4333,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4398,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4463,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-201500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-179300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-158600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-141700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-130500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-119900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-115300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-111700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-107500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-104900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-97700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-94300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-91000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-87800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-86400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-85400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-83700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-81800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-80700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4593,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4658,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4723,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>105600</v>
+      </c>
+      <c r="F76" s="3">
         <v>122200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>132200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>113200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>115700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>6000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-8700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>5600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4853,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-16900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-10700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-3200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +5017,10 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4681,8 +5078,14 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +5143,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5208,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5273,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5338,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5403,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-12500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-3400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-1000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-2100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5497,10 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,14 +5528,14 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5117,8 +5558,14 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5623,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,31 +5688,37 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E94" s="3">
+        <v>900</v>
+      </c>
+      <c r="F94" s="3">
         <v>4600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-16300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-23600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5294,8 +5753,14 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5782,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5843,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5908,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5973,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +6038,79 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>900</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>22900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>112500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>10800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>2400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>-100</v>
-      </c>
       <c r="S100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>-100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +6168,75 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-24100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>28400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,52 +990,53 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E12" s="3">
         <v>14000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>11200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1300</v>
       </c>
       <c r="M12" s="3">
         <v>1300</v>
       </c>
       <c r="N12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>200</v>
       </c>
       <c r="R12" s="3">
         <v>200</v>
@@ -1031,19 +1045,22 @@
         <v>200</v>
       </c>
       <c r="T12" s="3">
+        <v>200</v>
+      </c>
+      <c r="U12" s="3">
         <v>500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,29 +1147,29 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
@@ -1157,12 +1177,12 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1285,77 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26500</v>
+      </c>
+      <c r="E17" s="3">
         <v>22400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>20900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>12800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-22400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-12800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1426,17 +1460,17 @@
         <v>200</v>
       </c>
       <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1447,20 +1481,20 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1468,19 +1502,22 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>500</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,64 +1525,67 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-20800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-16900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-11100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-4500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1588,8 +1628,8 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-22200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-16900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-20800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-16900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-10700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-16900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-10700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2206,17 +2276,17 @@
         <v>-200</v>
       </c>
       <c r="F32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2227,20 +2297,20 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2248,84 +2318,90 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-500</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-20800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-16900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-10700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-20800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-16900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-10700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,97 +2660,101 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>12200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>104400</v>
+      </c>
+      <c r="E42" s="3">
         <v>98900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>114600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>115600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>120300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>102700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>80200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2677,8 +2767,8 @@
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2731,10 +2824,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -2752,25 +2845,28 @@
         <v>100</v>
       </c>
       <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,143 +2930,152 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
+        <v>400</v>
+      </c>
+      <c r="L45" s="3">
         <v>500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>400</v>
-      </c>
-      <c r="S45" s="3">
-        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>500</v>
       </c>
       <c r="U45" s="3">
+        <v>500</v>
+      </c>
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>110700</v>
+      </c>
+      <c r="E46" s="3">
         <v>103800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>118100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>125500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>134400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>115200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>116900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>100</v>
@@ -2985,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="I47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J47" s="3">
         <v>200</v>
@@ -3000,7 +3105,7 @@
         <v>200</v>
       </c>
       <c r="N47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O47" s="3">
         <v>300</v>
@@ -3017,8 +3122,8 @@
       <c r="S47" s="3">
         <v>300</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
+      <c r="T47" s="3">
+        <v>300</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>4</v>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3083,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3343,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U52" s="3">
         <v>400</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E54" s="3">
         <v>103900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>118200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>125600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>134600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>117100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>4800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,268 +3664,281 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
-      </c>
-      <c r="T57" s="3">
-        <v>300</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>12700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2300</v>
       </c>
       <c r="H60" s="3">
         <v>2300</v>
       </c>
       <c r="I60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3830,23 +3973,23 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>3200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3903,17 +4049,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U62" s="3">
         <v>100</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E66" s="3">
         <v>12700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2300</v>
       </c>
       <c r="H66" s="3">
         <v>2300</v>
       </c>
       <c r="I66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1400</v>
       </c>
       <c r="T66" s="3">
         <v>1400</v>
       </c>
       <c r="U66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-228100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-201500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-179300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-158600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-141700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-130500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-119900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-115300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-111700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-107500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-104900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-97700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-94300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-91000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-87800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-86400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-85400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-83700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-81800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-80700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E76" s="3">
         <v>91100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>105600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>132200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-8700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-5500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>700</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1500</v>
       </c>
       <c r="S76" s="3">
         <v>1500</v>
       </c>
       <c r="T76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U76" s="3">
         <v>2800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-20800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-16900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-10700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-1000</v>
       </c>
       <c r="S89" s="3">
         <v>-1000</v>
       </c>
       <c r="T89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U89" s="3">
         <v>-1900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-2100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5534,11 +5755,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,34 +5921,37 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E94" s="3">
         <v>15500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>4600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23600</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,61 +6287,64 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E100" s="3">
         <v>1900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>22900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>112500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4700</v>
-      </c>
-      <c r="N100" s="3">
-        <v>300</v>
       </c>
       <c r="O100" s="3">
         <v>300</v>
       </c>
       <c r="P100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>-100</v>
@@ -6107,10 +6353,13 @@
         <v>-100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>28400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,108 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,55 +1004,56 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E12" s="3">
         <v>17300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>14000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>14900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>11200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
       </c>
       <c r="N12" s="3">
         <v>1300</v>
       </c>
       <c r="O12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1700</v>
-      </c>
-      <c r="R12" s="3">
-        <v>200</v>
       </c>
       <c r="S12" s="3">
         <v>200</v>
@@ -1048,19 +1062,22 @@
         <v>200</v>
       </c>
       <c r="U12" s="3">
+        <v>200</v>
+      </c>
+      <c r="V12" s="3">
         <v>500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,29 +1170,29 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
@@ -1180,12 +1200,12 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,76 +1312,80 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>20900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>12800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>10000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,67 +1393,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-22400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-20900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-12800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1481,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,23 +1491,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1484,20 +1518,20 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1505,19 +1539,22 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>500</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,67 +1562,70 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-26600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-22200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-16900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-11100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-10700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-4100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1631,8 +1671,8 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
@@ -1652,76 +1692,82 @@
       <c r="X22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-22200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-20800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2331,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,23 +2343,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2300,20 +2370,20 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2321,87 +2391,93 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-500</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-20800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-20800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,103 +2747,107 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>12200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E42" s="3">
         <v>104400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>98900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>114600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>115600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>120300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>102700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>80200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2770,8 +2860,8 @@
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2797,8 +2887,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2827,10 +2920,10 @@
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
@@ -2848,25 +2941,28 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,144 +3029,153 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2200</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>500</v>
       </c>
       <c r="U45" s="3">
         <v>500</v>
       </c>
       <c r="V45" s="3">
+        <v>500</v>
+      </c>
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E46" s="3">
         <v>110700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>103800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>118100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>125500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>134400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>115200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>116900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3078,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>100</v>
@@ -3093,7 +3198,7 @@
         <v>100</v>
       </c>
       <c r="J47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K47" s="3">
         <v>200</v>
@@ -3108,7 +3213,7 @@
         <v>200</v>
       </c>
       <c r="O47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P47" s="3">
         <v>300</v>
@@ -3125,8 +3230,8 @@
       <c r="T47" s="3">
         <v>300</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
+      <c r="U47" s="3">
+        <v>300</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>4</v>
@@ -3137,8 +3242,11 @@
       <c r="X47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3194,7 +3302,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>500</v>
@@ -3205,8 +3313,11 @@
       <c r="X48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3466,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V52" s="3">
         <v>400</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E54" s="3">
         <v>110800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>103900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>118200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>125600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>134600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>115400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>117100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3795,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E57" s="3">
         <v>10500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>8100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
       </c>
       <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3744,201 +3878,210 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2300</v>
       </c>
       <c r="I60" s="3">
         <v>2300</v>
       </c>
       <c r="J60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3976,23 +4119,23 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>3200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4052,17 +4198,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V62" s="3">
         <v>100</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E66" s="3">
         <v>13900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2300</v>
       </c>
       <c r="I66" s="3">
         <v>2300</v>
       </c>
       <c r="J66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
-      </c>
-      <c r="T66" s="3">
-        <v>1400</v>
       </c>
       <c r="U66" s="3">
         <v>1400</v>
       </c>
       <c r="V66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W66" s="3">
         <v>1600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-270700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-228100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-201500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-179300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-158600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-141700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-130500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-119900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-115300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-111700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-107500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-104900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-94300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-91000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-87800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-86400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-85400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-83700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-81800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-80700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>72700</v>
+      </c>
+      <c r="E76" s="3">
         <v>96900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>91100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>105600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>132200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>115700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-8700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1500</v>
       </c>
       <c r="T76" s="3">
         <v>1500</v>
       </c>
       <c r="U76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V76" s="3">
         <v>2800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-20800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-17200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1000</v>
       </c>
       <c r="T89" s="3">
         <v>-1000</v>
       </c>
       <c r="U89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="V89" s="3">
         <v>-1900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5758,11 +5979,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,37 +6151,40 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>15500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>4600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-16300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23600</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,64 +6533,67 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>24000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>22900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>112500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4700</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
         <v>-100</v>
@@ -6356,10 +6602,13 @@
         <v>-100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E102" s="3">
         <v>900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>28400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,115 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -907,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25300</v>
+      </c>
+      <c r="F12" s="3">
         <v>34000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>17300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>14900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>11200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>3100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1700</v>
-      </c>
-      <c r="S12" s="3">
-        <v>200</v>
-      </c>
-      <c r="T12" s="3">
-        <v>200</v>
       </c>
       <c r="U12" s="3">
         <v>200</v>
       </c>
       <c r="V12" s="3">
+        <v>200</v>
+      </c>
+      <c r="W12" s="3">
+        <v>200</v>
+      </c>
+      <c r="X12" s="3">
         <v>500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,34 +1180,40 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1182,44 +1221,50 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1289,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F17" s="3">
         <v>42700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>26500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>22400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>20900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>17200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>12800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>10000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1393,70 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-34200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-42700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-26500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-22400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-12800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-7300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,29 +1558,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1521,40 +1588,46 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>500</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1562,70 +1635,76 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-42600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-26600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-22200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-20800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-16900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-11100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-10700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-4500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-3700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-4100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-2700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-3300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-2000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1674,11 +1753,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
@@ -1695,79 +1774,91 @@
       <c r="Y22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-42600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-26600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-22200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-20800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-16900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-10700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-3200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-42600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-26600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-22200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-20800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-16900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-3200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-42600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-26600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-22200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-20800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-16900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-3200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,29 +2482,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2373,111 +2512,123 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-500</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-42600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-26600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-22200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-20800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-16900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-10700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-3200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-42600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-26600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-22200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-20800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-16900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-10700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-3200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,112 +2919,120 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F41" s="3">
         <v>11400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>3800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>7500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>12200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>9200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>5900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>6200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>175700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>167500</v>
+      </c>
+      <c r="F42" s="3">
         <v>76600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>104400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>98900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>114600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>115600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>120300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>102700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>80200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
@@ -2863,11 +3042,11 @@
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2890,8 +3069,14 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2923,13 +3108,13 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
@@ -2944,25 +3129,31 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W43" s="3">
-        <v>0</v>
-      </c>
-      <c r="X43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,164 +3223,182 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>225800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>223300</v>
+      </c>
+      <c r="F46" s="3">
         <v>90900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>110700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>103800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>118100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>125500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>134400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>115200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>116900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>8300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>10000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>6200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>5300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E47" s="3">
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>100</v>
@@ -3201,10 +3410,10 @@
         <v>100</v>
       </c>
       <c r="K47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M47" s="3">
         <v>200</v>
@@ -3216,10 +3425,10 @@
         <v>200</v>
       </c>
       <c r="P47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R47" s="3">
         <v>300</v>
@@ -3233,11 +3442,11 @@
       <c r="U47" s="3">
         <v>300</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>4</v>
+      <c r="V47" s="3">
+        <v>300</v>
+      </c>
+      <c r="W47" s="3">
+        <v>300</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>4</v>
@@ -3245,13 +3454,19 @@
       <c r="Y47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -3305,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
@@ -3316,8 +3531,14 @@
       <c r="Y48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3589,10 +3828,10 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>400</v>
@@ -3600,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>225800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>223300</v>
+      </c>
+      <c r="F54" s="3">
         <v>90900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>110800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>103900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>118200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>125600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>134600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>115400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>117100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>4800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>7900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,90 +4055,98 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F57" s="3">
         <v>12700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>10500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>8100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>8300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3887,201 +4154,219 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
+      <c r="I58" s="3">
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>5900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>4400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>4200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F60" s="3">
         <v>18200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>12700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>12600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>5900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>5500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>4600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>1200</v>
       </c>
       <c r="W60" s="3">
         <v>1400</v>
       </c>
       <c r="X60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4122,26 +4407,26 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>3200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4436,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4201,20 +4492,20 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>100</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X62" s="3">
         <v>100</v>
@@ -4222,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="F66" s="3">
         <v>18200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>13900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>12700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>12600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>10300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-344800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-305100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-270700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-228100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-201500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-179300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-158600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-141700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-130500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-119900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-115300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-111700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-107500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-104900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-97700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-94300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-91000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-87800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-86400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-85400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-83700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-81800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-80700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>210400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>208300</v>
+      </c>
+      <c r="F76" s="3">
         <v>72700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>96900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>91100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>105600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>122200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>132200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>113200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>115700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>7600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-5500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>5600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-42600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-26600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-22200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-20800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-16900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-10700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-3200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5488,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="F89" s="3">
         <v>-20900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-16100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-12500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-3400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-3900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-3700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-2300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-1000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5982,14 +6423,14 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6012,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,43 +6607,49 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-91200</v>
+      </c>
+      <c r="F94" s="3">
         <v>27500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>15500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>4600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-16300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-23600</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6225,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +7021,91 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>161800</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>24000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>22900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>3000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>112500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>10800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>4000</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>-100</v>
-      </c>
       <c r="W100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>-100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F102" s="3">
         <v>6800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-24100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>28400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,64 +1045,65 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E12" s="3">
         <v>25000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>34000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>11200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>3100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1300</v>
       </c>
       <c r="Q12" s="3">
         <v>1300</v>
       </c>
       <c r="R12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S12" s="3">
         <v>1400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1700</v>
-      </c>
-      <c r="U12" s="3">
-        <v>200</v>
       </c>
       <c r="V12" s="3">
         <v>200</v>
@@ -1098,19 +1112,22 @@
         <v>200</v>
       </c>
       <c r="X12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>400</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1212,35 +1232,35 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
@@ -1248,12 +1268,12 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1392,89 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E17" s="3">
         <v>38300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>34200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>42700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>26500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>22400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1482,79 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-34200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-42700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-26500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-12800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,32 +1592,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
-      </c>
-      <c r="H20" s="3">
-        <v>200</v>
       </c>
       <c r="I20" s="3">
         <v>200</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1594,20 +1628,20 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1615,19 +1649,22 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>500</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1672,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="F21" s="3">
         <v>-34400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-42600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-26600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-22200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-20800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-16900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-4500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-4100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1759,8 +1799,8 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>4</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-34400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-42600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-26600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-22200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-20800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-10700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-7100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-34400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-42600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-26600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-22200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-20800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-34400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-42600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-26600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-22200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-20800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,32 +2552,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-200</v>
       </c>
       <c r="I32" s="3">
         <v>-200</v>
       </c>
       <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2518,20 +2588,20 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2539,96 +2609,102 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-500</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-42600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-26600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-22200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-20800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-10700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-42600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-26600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-22200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-20800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-10700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,121 +3007,125 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37300</v>
+      </c>
+      <c r="E41" s="3">
         <v>44900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>11400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>7500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>13800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>12200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>174700</v>
+      </c>
+      <c r="E42" s="3">
         <v>175700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>167500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>76600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>98900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>114600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>115600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>120300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>102700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>80200</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3048,8 +3138,8 @@
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3075,13 +3165,16 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -3114,10 +3207,10 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -3135,25 +3228,28 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
+        <v>100</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,170 +3325,179 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E45" s="3">
         <v>5100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
       </c>
       <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>200</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
       <c r="V45" s="3">
+        <v>200</v>
+      </c>
+      <c r="W45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>500</v>
       </c>
       <c r="Y45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>215700</v>
+      </c>
+      <c r="E46" s="3">
         <v>225800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>223300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>90900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>110700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>103800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>118100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>125500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>134400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>115200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>116900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F47" s="3">
         <v>0</v>
@@ -3401,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
         <v>100</v>
@@ -3416,7 +3521,7 @@
         <v>100</v>
       </c>
       <c r="M47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N47" s="3">
         <v>200</v>
@@ -3431,7 +3536,7 @@
         <v>200</v>
       </c>
       <c r="R47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S47" s="3">
         <v>300</v>
@@ -3448,8 +3553,8 @@
       <c r="W47" s="3">
         <v>300</v>
       </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
+      <c r="X47" s="3">
+        <v>300</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>4</v>
@@ -3460,16 +3565,19 @@
       <c r="AA47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3526,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>500</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3834,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="3">
         <v>400</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>215800</v>
+      </c>
+      <c r="E54" s="3">
         <v>225800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>223300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>90900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>110800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>103900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>118200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>125600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>134600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>115400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>117100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>4800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>7900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
         <v>10700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>11200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>12700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>500</v>
-      </c>
-      <c r="X57" s="3">
-        <v>300</v>
       </c>
       <c r="Y57" s="3">
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4160,213 +4294,222 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E59" s="3">
         <v>4700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E60" s="3">
         <v>15400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>2300</v>
       </c>
       <c r="L60" s="3">
         <v>2300</v>
       </c>
       <c r="M60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N60" s="3">
         <v>1500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4413,23 +4556,23 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>3200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,8 +4585,11 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4498,17 +4644,17 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="3">
         <v>100</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E66" s="3">
         <v>15400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>18200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2300</v>
       </c>
       <c r="L66" s="3">
         <v>2300</v>
       </c>
       <c r="M66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
-      </c>
-      <c r="W66" s="3">
-        <v>1400</v>
       </c>
       <c r="X66" s="3">
         <v>1400</v>
       </c>
       <c r="Y66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-384700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-344800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-305100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-270700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-228100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-201500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-179300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-158600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-141700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-130500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-119900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-115300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-111700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-107500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-104900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-97700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-94300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-91000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-87800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-86400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-85400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-83700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-81800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-80700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>196900</v>
+      </c>
+      <c r="E76" s="3">
         <v>210400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>208300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>72700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>96900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>91100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>105600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>132200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>113200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>115700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-8700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-5500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1500</v>
       </c>
       <c r="W76" s="3">
         <v>1500</v>
       </c>
       <c r="X76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>5600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-42600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-26600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-22200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-20800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-10700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-37700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-20900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-16100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-12500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-1000</v>
       </c>
       <c r="W89" s="3">
         <v>-1000</v>
       </c>
       <c r="X89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6429,11 +6650,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,46 +6840,49 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-91200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>27500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>15500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-16300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23600</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,73 +7270,76 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E100" s="3">
         <v>29900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>161800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>24000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>22900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>112500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>10800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4700</v>
-      </c>
-      <c r="R100" s="3">
-        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4000</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>-100</v>
@@ -7102,10 +7348,13 @@
         <v>-100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>33000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-24100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>28400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,67 +1059,68 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E12" s="3">
         <v>30900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>25000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>25300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>34000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>14900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>11200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>5300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>4500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>3100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1300</v>
       </c>
       <c r="R12" s="3">
         <v>1300</v>
       </c>
       <c r="S12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T12" s="3">
         <v>1400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1700</v>
-      </c>
-      <c r="V12" s="3">
-        <v>200</v>
       </c>
       <c r="W12" s="3">
         <v>200</v>
@@ -1115,19 +1129,22 @@
         <v>200</v>
       </c>
       <c r="Y12" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>400</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,35 +1255,35 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
@@ -1271,12 +1291,12 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,88 +1419,92 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>38700</v>
+      </c>
+      <c r="E17" s="3">
         <v>45500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>38300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>34200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>42700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>26500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>22400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>20900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>10000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,79 +1512,82 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-38300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-34200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-42700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-26500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-22400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-20900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-12800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1592,35 +1626,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>200</v>
       </c>
       <c r="J20" s="3">
         <v>200</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1631,20 +1665,20 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1652,19 +1686,22 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>500</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,79 +1709,82 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-39700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-34400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-42600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-26600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-22200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-20800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-16900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-11100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-10700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-4500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-2700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1802,8 +1842,8 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>4</v>
+      <c r="V22" s="3">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>4</v>
@@ -1823,88 +1863,94 @@
       <c r="AB22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-39900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-34400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-42600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-26600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-16900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-3200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2112,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-39900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-39700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-34400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-42600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-26600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-20800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-3200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-39700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-34400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-42600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-26600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-20800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-3200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2552,35 +2622,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-200</v>
       </c>
       <c r="J32" s="3">
         <v>-200</v>
       </c>
       <c r="K32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2591,20 +2661,20 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2612,99 +2682,105 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-500</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-39900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-39700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-42600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-26600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-20800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-3200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-39900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-39700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-42600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-26600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-20800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-3200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,127 +3094,131 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E41" s="3">
         <v>37300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>44400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>13800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>12200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>9200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E42" s="3">
         <v>174700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>175700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>167500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>76600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>104400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>98900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>114600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>115600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>120300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>102700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>80200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3141,8 +3231,8 @@
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="T42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3177,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
@@ -3210,10 +3303,10 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
@@ -3231,25 +3324,28 @@
         <v>100</v>
       </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>0</v>
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,168 +3424,177 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E45" s="3">
         <v>3700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>200</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
       <c r="W45" s="3">
+        <v>200</v>
+      </c>
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>500</v>
       </c>
       <c r="Y45" s="3">
         <v>500</v>
       </c>
       <c r="Z45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA45" s="3">
         <v>600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E46" s="3">
         <v>215700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>225800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>223300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>90900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>110700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>103800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>118100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>125500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>134400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>115200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>116900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3499,8 +3604,8 @@
       <c r="E47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G47" s="3">
         <v>0</v>
@@ -3509,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>100</v>
@@ -3524,7 +3629,7 @@
         <v>100</v>
       </c>
       <c r="N47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O47" s="3">
         <v>200</v>
@@ -3539,7 +3644,7 @@
         <v>200</v>
       </c>
       <c r="S47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T47" s="3">
         <v>300</v>
@@ -3556,8 +3661,8 @@
       <c r="X47" s="3">
         <v>300</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>4</v>
+      <c r="Y47" s="3">
+        <v>300</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>4</v>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3579,8 +3687,8 @@
       <c r="E48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3637,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>500</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3957,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="3">
         <v>400</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>187100</v>
+      </c>
+      <c r="E54" s="3">
         <v>215800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>225800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>223300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>90900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>110800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>103900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>118200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>125600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>115400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>117100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>4800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>7900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4318,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>11200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>12700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>8100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>8300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>500</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>300</v>
       </c>
       <c r="Z57" s="3">
         <v>300</v>
       </c>
       <c r="AA57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4297,219 +4431,228 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E59" s="3">
         <v>11400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E60" s="3">
         <v>18900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>15100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>12700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2300</v>
       </c>
       <c r="M60" s="3">
         <v>2300</v>
       </c>
       <c r="N60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O60" s="3">
         <v>1500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4559,23 +4702,23 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>3200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4647,17 +4793,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="3">
         <v>100</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3">
         <v>18900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>13900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2300</v>
       </c>
       <c r="M66" s="3">
         <v>2300</v>
       </c>
       <c r="N66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4100</v>
-      </c>
-      <c r="X66" s="3">
-        <v>1400</v>
       </c>
       <c r="Y66" s="3">
         <v>1400</v>
       </c>
       <c r="Z66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA66" s="3">
         <v>1600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-424200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-384700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-344800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-305100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-270700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-228100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-201500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-179300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-158600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-141700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-130500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-119900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-115300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-111700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-107500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-104900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-97700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-94300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-91000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-87800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-86400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-85400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-83700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-81800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-80700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E76" s="3">
         <v>196900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>210400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>208300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>72700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>96900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>91100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>105600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>132200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>115700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-8700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-5500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1500</v>
       </c>
       <c r="X76" s="3">
         <v>1500</v>
       </c>
       <c r="Y76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-39900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-39700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-42600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-26600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-20800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-3200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-37700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-20900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-17200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-16100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-12500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-1000</v>
       </c>
       <c r="X89" s="3">
         <v>-1000</v>
       </c>
       <c r="Y89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6653,11 +6874,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,49 +7070,52 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-91200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>27500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>15500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>4600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23600</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,76 +7516,79 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>14100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>29900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>161800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>24000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>22900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>112500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>10800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4700</v>
-      </c>
-      <c r="S100" s="3">
-        <v>300</v>
       </c>
       <c r="T100" s="3">
         <v>300</v>
       </c>
       <c r="U100" s="3">
+        <v>300</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>2400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>4000</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="3">
         <v>-100</v>
@@ -7351,10 +7597,13 @@
         <v>-100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>33000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>6800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-24100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>28400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -1871,8 +1871,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-39400</v>
       </c>
       <c r="E23" s="3">
         <v>-39900</v>
@@ -2120,8 +2120,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-39400</v>
       </c>
       <c r="E26" s="3">
         <v>-39900</v>
@@ -2203,8 +2203,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-39400</v>
       </c>
       <c r="E27" s="3">
         <v>-39900</v>
@@ -2701,8 +2701,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-39400</v>
       </c>
       <c r="E33" s="3">
         <v>-39900</v>
@@ -2867,8 +2867,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-39400</v>
       </c>
       <c r="E35" s="3">
         <v>-39900</v>
@@ -5071,8 +5071,8 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
+      <c r="D66" s="3">
+        <v>20800</v>
       </c>
       <c r="E66" s="3">
         <v>18900</v>
@@ -6103,8 +6103,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-39400</v>
       </c>
       <c r="E81" s="3">
         <v>-39900</v>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,130 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -863,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -946,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1085,99 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>26900</v>
+      </c>
+      <c r="F12" s="3">
         <v>30500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>30900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>25000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>25300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>34000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>17300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>14000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>14900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>11200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>4500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>3100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>1400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>1000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>1700</v>
-      </c>
-      <c r="W12" s="3">
-        <v>200</v>
-      </c>
-      <c r="X12" s="3">
-        <v>200</v>
       </c>
       <c r="Y12" s="3">
         <v>200</v>
       </c>
       <c r="Z12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>400</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,14 +1297,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
@@ -1273,44 +1312,50 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1392,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E17" s="3">
         <v>38700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>38700</v>
+      </c>
+      <c r="G17" s="3">
         <v>45500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>38300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>34200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>42700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>26500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>22400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>20900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>17200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>12800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>10000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>1600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-45500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-38300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-34200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-42700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-26500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-22400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-17200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-12800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-10000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-7300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1626,41 +1693,41 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>800</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G20" s="3">
         <v>5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1668,40 +1735,46 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>500</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,82 +1782,88 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-39400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-39900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-39700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-34400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-42600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-26600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-22200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-20800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-16900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-11100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-10700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-4500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-4100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-7100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-3300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-3200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1845,11 +1924,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>4</v>
@@ -1866,91 +1945,103 @@
       <c r="AC22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-39400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-39900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-39700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-34400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-42600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-26600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-22200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-20800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-16900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-10700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-4100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-7100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-3400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-3200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-39400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-39900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-39700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-34400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-42600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-26600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-22200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-20800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-16900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-10700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-4100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-7100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-3400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-3200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-39400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-39900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-39700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-34400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-42600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-26600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-22200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-20800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-16900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-11100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-10700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-4100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-7100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-3400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-3200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2622,41 +2761,41 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F32" s="3">
+        <v>700</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2664,123 +2803,135 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>700</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-500</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-39400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-39900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-39700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-34400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-42600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-26600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-22200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-20800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-16900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-11100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-10700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-4100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-7100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-3400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-3200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-39400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-39900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-39700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-34400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-42600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-26600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-22200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-20800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-16900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-11100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-10700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-4100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-7100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-3400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-3200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,136 +3266,144 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F41" s="3">
         <v>42500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>37300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>44900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>44400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>11400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>13800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>12200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>36300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>7800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>9200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>4700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>4700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>6200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E42" s="3">
+        <v>142900</v>
+      </c>
+      <c r="F42" s="3">
         <v>141600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>174700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>175700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>167500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>76600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>104400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>98900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>114600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>115600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>120300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>102700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>80200</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3234,11 +3413,11 @@
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
+      <c r="U42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W42" s="3">
         <v>0</v>
@@ -3261,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3270,13 +3455,13 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
@@ -3306,13 +3491,13 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -3327,25 +3512,31 @@
         <v>100</v>
       </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,174 +3618,192 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>5100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>11300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>2200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
+        <v>500</v>
+      </c>
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>135500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>152900</v>
+      </c>
+      <c r="F46" s="3">
         <v>187100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>215700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>225800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>223300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>90900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>110700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>103800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>118100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>125500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>134400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>115200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>116900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>3000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>4500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>6200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>3200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>5300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>7000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3607,20 +3816,20 @@
       <c r="F47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
       <c r="J47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>100</v>
@@ -3632,10 +3841,10 @@
         <v>100</v>
       </c>
       <c r="O47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q47" s="3">
         <v>200</v>
@@ -3647,10 +3856,10 @@
         <v>200</v>
       </c>
       <c r="T47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V47" s="3">
         <v>300</v>
@@ -3664,11 +3873,11 @@
       <c r="Y47" s="3">
         <v>300</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>4</v>
+      <c r="Z47" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>300</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>4</v>
@@ -3676,19 +3885,25 @@
       <c r="AC47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -3748,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AB48" s="3">
         <v>500</v>
@@ -3759,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4080,10 +4319,10 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <v>400</v>
@@ -4091,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>135600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>152900</v>
+      </c>
+      <c r="F54" s="3">
         <v>187100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>215800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>225800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>223300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>90900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>110800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>103900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>118200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>125600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>134600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>115400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>117100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>4800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>4200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>7900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>10400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>10700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>11200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>12700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>10500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>8300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4434,225 +4701,243 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>300</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F59" s="3">
         <v>10400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1300</v>
       </c>
       <c r="R59" s="3">
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>5900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>4400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>4200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F60" s="3">
         <v>20800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>15400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>15100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>18200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>13900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>7100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>4600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>1200</v>
       </c>
       <c r="AA60" s="3">
         <v>1400</v>
       </c>
       <c r="AB60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD60" s="3">
         <v>2200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4705,26 +4990,26 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>3200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>2700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>700</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
@@ -4734,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4796,20 +5087,20 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>100</v>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB62" s="3">
         <v>100</v>
@@ -4817,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F66" s="3">
         <v>20800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>18900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>15400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>18200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>13900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>12700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>12600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>10300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>8600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>7100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>4100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>2300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-488400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-462100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-424200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-384700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-344800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-305100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-270700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-228100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-201500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-179300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-158600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-141700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-130500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-119900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-115300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-111700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-107500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-104900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-97700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-94300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-91000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-87800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-86400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-85400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-83700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-81800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-80700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>125500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>140400</v>
+      </c>
+      <c r="F76" s="3">
         <v>166300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>196900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>210400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>208300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>72700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>96900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>91100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>105600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>122200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>132200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>113200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>115700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>7600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-8700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-5500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>2800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>5600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-39400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-39900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-39700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-34400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-42600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-26600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-22200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-20800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-16900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-11100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-10700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-4100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-7100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-3400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-3200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6295,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F89" s="3">
         <v>-26900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-21600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-19400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-37700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-20900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-17200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-16100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-12500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-3900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-3700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-2000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-2300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-1600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-1100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6877,14 +7318,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6907,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,55 +7526,61 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F94" s="3">
         <v>31600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-10000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-91200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>27500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>4600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-16300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-23600</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -7156,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +8004,103 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>14100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>29900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>161800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>24000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>22900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>3000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>112500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>10800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>4700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>2400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>4000</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
-        <v>-100</v>
-      </c>
       <c r="AA100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="3">
         <v>-100</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>33000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>6800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>1600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-24100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>28400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>7200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>1500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>1300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>3000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,76 +1100,77 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E12" s="3">
         <v>15900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>25000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>34000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>17300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>14000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3100</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1300</v>
       </c>
       <c r="U12" s="3">
         <v>1300</v>
       </c>
       <c r="V12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W12" s="3">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>200</v>
       </c>
       <c r="Z12" s="3">
         <v>200</v>
@@ -1165,19 +1179,22 @@
         <v>200</v>
       </c>
       <c r="AB12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC12" s="3">
         <v>500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>400</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1303,35 +1323,35 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
@@ -1339,12 +1359,12 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,97 +1499,101 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E17" s="3">
         <v>28200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>38700</v>
       </c>
       <c r="F17" s="3">
         <v>38700</v>
       </c>
       <c r="G17" s="3">
+        <v>38700</v>
+      </c>
+      <c r="H17" s="3">
         <v>45500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>38300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>34200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>42700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>22400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>20900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>17200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>12800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>10000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,88 +1601,91 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-38700</v>
+        <v>-28200</v>
       </c>
       <c r="F18" s="3">
         <v>-38700</v>
       </c>
       <c r="G18" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-45500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-38300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-34200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-42700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-26500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-22400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-20900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-17200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-12800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-4600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-7300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1693,44 +1727,44 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F20" s="3">
         <v>800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>200</v>
       </c>
       <c r="M20" s="3">
         <v>200</v>
       </c>
       <c r="N20" s="3">
+        <v>200</v>
+      </c>
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1741,20 +1775,20 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-700</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
@@ -1762,19 +1796,22 @@
         <v>0</v>
       </c>
       <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>500</v>
       </c>
-      <c r="AD20" s="3">
-        <v>0</v>
-      </c>
       <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,88 +1819,91 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-37900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-39400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-39700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-34400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-42600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-26600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-22200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-20800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-16900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-4500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-4100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-2700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1930,8 +1970,8 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
+      <c r="Y22" s="3">
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>4</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-26300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-37900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-39400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-34400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-42600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-26600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-22200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-16900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-26300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-37900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-39400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-39700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-34400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-42600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-26600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-20800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-16900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-26300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-37900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-39400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-39700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-34400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-42600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-20800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-16900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-3400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2761,44 +2831,44 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-200</v>
       </c>
       <c r="M32" s="3">
         <v>-200</v>
       </c>
       <c r="N32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2809,20 +2879,20 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>700</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
@@ -2830,108 +2900,114 @@
         <v>0</v>
       </c>
       <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-500</v>
       </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
       <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-26300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-37900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-39400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-39700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-34400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-42600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-20800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-16900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-3400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-26300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-37900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-39400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-39700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-34400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-42600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-20800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-16900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-3400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,145 +3354,149 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E41" s="3">
         <v>28900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>42500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>44900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>11400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>13800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>12200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>36300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>7800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>2800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6200</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>104100</v>
+      </c>
+      <c r="E42" s="3">
         <v>103500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>142900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>141600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>174700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>175700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>167500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>76600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>104400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>114600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>115600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>120300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>102700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>80200</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3419,8 +3509,8 @@
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W42" s="3">
-        <v>0</v>
+      <c r="W42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3455,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -3497,10 +3590,10 @@
         <v>100</v>
       </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
-      </c>
-      <c r="T43" s="3">
-        <v>100</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -3518,25 +3611,28 @@
         <v>100</v>
       </c>
       <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>0</v>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,186 +3720,195 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>3100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>200</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>400</v>
       </c>
       <c r="S45" s="3">
+        <v>400</v>
+      </c>
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>200</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
       <c r="Z45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA45" s="3">
         <v>400</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>500</v>
       </c>
       <c r="AB45" s="3">
         <v>500</v>
       </c>
       <c r="AC45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD45" s="3">
         <v>600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>700</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E46" s="3">
         <v>135500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>152900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>187100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>215700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>225800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>223300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>90900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>110700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>103800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>118100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>125500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>134400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>115200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>116900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>6200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>5300</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>7000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3822,8 +3927,8 @@
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3832,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>100</v>
@@ -3847,7 +3952,7 @@
         <v>100</v>
       </c>
       <c r="Q47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R47" s="3">
         <v>200</v>
@@ -3862,7 +3967,7 @@
         <v>200</v>
       </c>
       <c r="V47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W47" s="3">
         <v>300</v>
@@ -3879,8 +3984,8 @@
       <c r="AA47" s="3">
         <v>300</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
+      <c r="AB47" s="3">
+        <v>300</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>4</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3969,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="3">
         <v>500</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4325,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
         <v>400</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E54" s="3">
         <v>135600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>152900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>187100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>215800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>225800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>223300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>90900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>110800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>103900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>118200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>125600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>134600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>115400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>117100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>3000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>4800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>4200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>6200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>7900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,97 +4710,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>5300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>10400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>10700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>11200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>12700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>10500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>500</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>300</v>
       </c>
       <c r="AC57" s="3">
         <v>300</v>
       </c>
       <c r="AD57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE57" s="3">
         <v>700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4707,237 +4841,246 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
-      <c r="AB58" s="3">
-        <v>0</v>
-      </c>
       <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>200</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>5700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>600</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E60" s="3">
         <v>10100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>12500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>20800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2300</v>
       </c>
       <c r="P60" s="3">
         <v>2300</v>
       </c>
       <c r="Q60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R60" s="3">
         <v>1500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4996,23 +5139,23 @@
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>3200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>700</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5093,17 +5239,17 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
+      <c r="Y62" s="3">
+        <v>0</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AB62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC62" s="3">
         <v>100</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E66" s="3">
         <v>10100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>18900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>15400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>18200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>13900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>12700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2300</v>
       </c>
       <c r="P66" s="3">
         <v>2300</v>
       </c>
       <c r="Q66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>8600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4100</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1400</v>
       </c>
       <c r="AB66" s="3">
         <v>1400</v>
       </c>
       <c r="AC66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-513700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-488400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-462100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-424200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-384700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-344800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-305100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-270700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-228100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-201500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-179300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-158600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-141700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-130500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-119900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-115300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-111700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-107500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-104900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-97700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-94300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-91000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-87800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-86400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-85400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-83700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-81800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-80700</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E76" s="3">
         <v>125500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>140400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>166300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>196900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>210400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>208300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>72700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>96900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>91100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>105600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>122200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>132200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>113200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>115700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-8700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-5500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>700</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>1500</v>
       </c>
       <c r="AA76" s="3">
         <v>1500</v>
       </c>
       <c r="AB76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC76" s="3">
         <v>2800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>4700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>5600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-26300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-37900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-39400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-39700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-34400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-42600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-20800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-16900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-3400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-26900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-21600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-19400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-37700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-20900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-17200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-16100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-2000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-1700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-1000</v>
       </c>
       <c r="AA89" s="3">
         <v>-1000</v>
       </c>
       <c r="AB89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AC89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7324,11 +7545,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,58 +7759,61 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>40000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>31600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-91200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>27500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>15500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>4600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8019,76 +8265,76 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>14100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>29900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>161800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>24000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>22900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>112500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>10800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4700</v>
-      </c>
-      <c r="V100" s="3">
-        <v>300</v>
       </c>
       <c r="W100" s="3">
         <v>300</v>
       </c>
       <c r="X100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>2400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>4000</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="3">
         <v>-100</v>
@@ -8097,10 +8343,13 @@
         <v>-100</v>
       </c>
       <c r="AE100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E102" s="3">
         <v>23500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>33000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>28400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RLMD_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>RLMD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AF102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,134 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AG7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -883,8 +887,11 @@
       <c r="AF8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -975,8 +982,11 @@
       <c r="AF9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,8 +1077,11 @@
       <c r="AF10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1101,79 +1114,80 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>30900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>25000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>25300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>34000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>17300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>14000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>14900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>4500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>3100</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1300</v>
       </c>
       <c r="V12" s="3">
         <v>1300</v>
       </c>
       <c r="W12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X12" s="3">
         <v>1400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1700</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>200</v>
       </c>
       <c r="AA12" s="3">
         <v>200</v>
@@ -1182,19 +1196,22 @@
         <v>200</v>
       </c>
       <c r="AC12" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD12" s="3">
         <v>500</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>300</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>400</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AG12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1285,8 +1302,11 @@
       <c r="AF13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1326,35 +1346,35 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>3800</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
@@ -1362,12 +1382,12 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1377,8 +1397,11 @@
       <c r="AF14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1469,8 +1492,11 @@
       <c r="AF15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="AG15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1500,100 +1526,104 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
-    </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E17" s="3">
         <v>26000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>28200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>38700</v>
       </c>
       <c r="G17" s="3">
         <v>38700</v>
       </c>
       <c r="H17" s="3">
+        <v>38700</v>
+      </c>
+      <c r="I17" s="3">
         <v>45500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>38300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>34200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>42700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>22400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>20900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>17200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>12800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>10000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1600</v>
       </c>
-      <c r="AF17" s="3">
+      <c r="AG17" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1601,91 +1631,94 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-28200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-38700</v>
       </c>
       <c r="G18" s="3">
         <v>-38700</v>
       </c>
       <c r="H18" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-45500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-38300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-34200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-42700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-26500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-22400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-20900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-17200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-10000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-4600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-7300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-1700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-2300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF18" s="3">
+      <c r="AG18" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1718,8 +1751,9 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
-    </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1727,47 +1761,47 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>200</v>
       </c>
       <c r="N20" s="3">
         <v>200</v>
       </c>
       <c r="O20" s="3">
+        <v>200</v>
+      </c>
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1778,20 +1812,20 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-700</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1799,19 +1833,22 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>300</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>500</v>
       </c>
-      <c r="AE20" s="3">
-        <v>0</v>
-      </c>
       <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1819,91 +1856,94 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-37900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-39400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-39900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-39700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-34400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-42600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-26600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-22200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-20800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-16900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-10700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-4500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-4100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-2700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-3400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF21" s="3">
+      <c r="AG21" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1973,8 +2013,8 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
+      <c r="Z22" s="3">
+        <v>0</v>
       </c>
       <c r="AA22" s="3" t="s">
         <v>4</v>
@@ -1994,100 +2034,106 @@
       <c r="AF22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-25300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-26300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-37900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-39400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-39900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-39700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-34400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-42600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-26600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-22200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-16900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-3700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-3400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF23" s="3">
+      <c r="AG23" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2178,8 +2224,11 @@
       <c r="AF24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2270,192 +2319,201 @@
       <c r="AF25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-25300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-26300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-37900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-39400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-39900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-39700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-34400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-42600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-20800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-16900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF26" s="3">
+      <c r="AG26" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-25300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-26300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-37900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-39400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-39900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-39700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-34400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-42600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-26600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-20800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-16900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-3400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF27" s="3">
+      <c r="AG27" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,8 +2604,11 @@
       <c r="AF28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2638,8 +2699,11 @@
       <c r="AF29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2730,8 +2794,11 @@
       <c r="AF30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2822,8 +2889,11 @@
       <c r="AF31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2831,47 +2901,47 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-200</v>
       </c>
       <c r="N32" s="3">
         <v>-200</v>
       </c>
       <c r="O32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2882,20 +2952,20 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>700</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2903,111 +2973,117 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>-300</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-500</v>
       </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
       <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-25300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-26300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-37900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-39400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-39900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-39700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-34400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-42600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-26600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-20800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-16900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-3400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF33" s="3">
+      <c r="AG33" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3098,197 +3174,206 @@
       <c r="AF34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-25300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-26300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-37900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-39400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-39900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-39700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-34400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-42600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-26600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-20800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-16900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-3400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF35" s="3">
+      <c r="AG35" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AG38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,8 +3406,9 @@
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
       <c r="AF39" s="3"/>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3355,151 +3441,155 @@
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
       <c r="AF40" s="3"/>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
         <v>14500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>42500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>37300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>44900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>44400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>13800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>12200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>36300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>7800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>6200</v>
       </c>
-      <c r="AF41" s="3">
+      <c r="AG41" s="3">
         <v>8500</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E42" s="3">
         <v>104100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>103500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>142900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>141600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>174700</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>175700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>167500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>76600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>104400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>98900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>114600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>115600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>120300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>102700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>80200</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>4</v>
       </c>
@@ -3512,8 +3602,8 @@
       <c r="W42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X42" s="3">
-        <v>0</v>
+      <c r="X42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y42" s="3">
         <v>0</v>
@@ -3539,8 +3629,11 @@
       <c r="AF42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3551,16 +3644,16 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
@@ -3593,10 +3686,10 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
@@ -3614,25 +3707,28 @@
         <v>100</v>
       </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>0</v>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-      <c r="AF43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3723,212 +3819,221 @@
       <c r="AF44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E45" s="3">
         <v>3500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>5100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>2200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
       </c>
       <c r="T45" s="3">
+        <v>400</v>
+      </c>
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>200</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
       <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB45" s="3">
         <v>400</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>500</v>
       </c>
       <c r="AC45" s="3">
         <v>500</v>
       </c>
       <c r="AD45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE45" s="3">
         <v>600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>700</v>
       </c>
-      <c r="AF45" s="3">
+      <c r="AG45" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E46" s="3">
         <v>122000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>152900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>187100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>215700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>225800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>223300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>90900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>110700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>103800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>118100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>125500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>134400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>115200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>116900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>5300</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>7000</v>
       </c>
-      <c r="AF46" s="3">
+      <c r="AG46" s="3">
         <v>9300</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
@@ -3940,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>100</v>
@@ -3955,7 +4060,7 @@
         <v>100</v>
       </c>
       <c r="R47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S47" s="3">
         <v>200</v>
@@ -3970,7 +4075,7 @@
         <v>200</v>
       </c>
       <c r="W47" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X47" s="3">
         <v>300</v>
@@ -3987,8 +4092,8 @@
       <c r="AB47" s="3">
         <v>300</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
+      <c r="AC47" s="3">
+        <v>300</v>
       </c>
       <c r="AD47" s="3" t="s">
         <v>4</v>
@@ -3999,8 +4104,11 @@
       <c r="AF47" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -4080,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="AC48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="3">
         <v>500</v>
@@ -4091,8 +4199,11 @@
       <c r="AF48" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG48" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4183,8 +4294,11 @@
       <c r="AF49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4275,8 +4389,11 @@
       <c r="AF50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4367,8 +4484,11 @@
       <c r="AF51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4448,7 +4568,7 @@
         <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="3">
         <v>400</v>
@@ -4459,8 +4579,11 @@
       <c r="AF52" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG52" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4551,100 +4674,106 @@
       <c r="AF53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>109100</v>
+      </c>
+      <c r="E54" s="3">
         <v>122000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>152900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>187100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>215800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>225800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>223300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>90900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>110800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>103900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>118200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>125600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>134600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>115400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>117100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>4800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>4200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>6200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>7900</v>
       </c>
-      <c r="AF54" s="3">
+      <c r="AG54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4677,8 +4806,9 @@
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
       <c r="AF55" s="3"/>
-    </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4711,100 +4841,104 @@
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
       <c r="AF56" s="3"/>
-    </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>5300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>10400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>10700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>11200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>12700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>10500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>8300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>500</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>300</v>
       </c>
       <c r="AD57" s="3">
         <v>300</v>
       </c>
       <c r="AE57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF57" s="3">
         <v>700</v>
       </c>
-      <c r="AF57" s="3">
+      <c r="AG57" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4844,243 +4978,252 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
-      <c r="Y58" s="3">
-        <v>0</v>
-      </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
-      <c r="AC58" s="3">
-        <v>0</v>
-      </c>
       <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
         <v>100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>200</v>
       </c>
-      <c r="AF58" s="3">
+      <c r="AG58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>5800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>5900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>4400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>4200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>600</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>900</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1400</v>
       </c>
-      <c r="AF59" s="3">
+      <c r="AG59" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E60" s="3">
         <v>10700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>20800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2300</v>
       </c>
       <c r="Q60" s="3">
         <v>2300</v>
       </c>
       <c r="R60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S60" s="3">
         <v>1500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2200</v>
       </c>
-      <c r="AF60" s="3">
+      <c r="AG60" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5142,23 +5285,23 @@
         <v>0</v>
       </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
         <v>3200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>700</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
@@ -5171,8 +5314,11 @@
       <c r="AF61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5242,17 +5388,17 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
+      <c r="Z62" s="3">
+        <v>0</v>
       </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB62" s="3">
-        <v>0</v>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD62" s="3">
         <v>100</v>
@@ -5263,8 +5409,11 @@
       <c r="AF62" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG62" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5355,8 +5504,11 @@
       <c r="AF63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5447,8 +5599,11 @@
       <c r="AF64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5539,100 +5694,106 @@
       <c r="AF65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>18900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>15400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>15100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>13900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>12700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2300</v>
       </c>
       <c r="Q66" s="3">
         <v>2300</v>
       </c>
       <c r="R66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>8600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4100</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1400</v>
       </c>
       <c r="AC66" s="3">
         <v>1400</v>
       </c>
       <c r="AD66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE66" s="3">
         <v>1600</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>2300</v>
       </c>
-      <c r="AF66" s="3">
+      <c r="AG66" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5665,8 +5826,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5757,8 +5919,11 @@
       <c r="AF68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5849,8 +6014,11 @@
       <c r="AF69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5941,8 +6109,11 @@
       <c r="AF70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -6033,100 +6204,106 @@
       <c r="AF71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-535700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-513700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-488400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-462100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-424200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-384700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-344800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-305100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-270700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-228100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-201500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-179300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-158600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-141700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-130500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-119900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-115300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-111700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-107500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-104900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-97700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-94300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-91000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-87800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-86400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-85400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-83700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-81800</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-80700</v>
       </c>
-      <c r="AF72" s="3">
+      <c r="AG72" s="3">
         <v>-79100</v>
       </c>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6217,8 +6394,11 @@
       <c r="AF73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6309,8 +6489,11 @@
       <c r="AF74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6401,100 +6584,106 @@
       <c r="AF75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E76" s="3">
         <v>111300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>125500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>140400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>166300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>196900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>210400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>208300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>72700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>96900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>91100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>105600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>122200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>132200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>113200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>115700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-8700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>700</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>1500</v>
       </c>
       <c r="AB76" s="3">
         <v>1500</v>
       </c>
       <c r="AC76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD76" s="3">
         <v>2800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>4700</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>5600</v>
       </c>
-      <c r="AF76" s="3">
+      <c r="AG76" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6585,197 +6774,206 @@
       <c r="AF77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
-      <c r="AF80" s="2">
+      <c r="AG80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-25300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-26300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-37900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-39400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-39900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-39700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-34400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-42600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-26600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-20800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-16900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-3400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-1000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AF81" s="3">
+      <c r="AG81" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6808,8 +7006,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-    </row>
-    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6900,8 +7099,11 @@
       <c r="AF83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6992,8 +7194,11 @@
       <c r="AF84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -7084,8 +7289,11 @@
       <c r="AF85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7176,8 +7384,11 @@
       <c r="AF86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7268,8 +7479,11 @@
       <c r="AF87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7360,100 +7574,106 @@
       <c r="AF88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-13300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-16500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-26900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-21600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-19400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-37700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-17200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-16100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-2000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-1700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1100</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-1000</v>
       </c>
       <c r="AB89" s="3">
         <v>-1000</v>
       </c>
       <c r="AC89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AD89" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-2100</v>
       </c>
-      <c r="AF89" s="3">
+      <c r="AG89" s="3">
         <v>-2800</v>
       </c>
     </row>
-    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7486,8 +7706,9 @@
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
       <c r="AF90" s="3"/>
-    </row>
-    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7548,11 +7769,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
@@ -7578,8 +7799,11 @@
       <c r="AF91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7670,8 +7894,11 @@
       <c r="AF92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7762,61 +7989,64 @@
       <c r="AF93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>40000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>31600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-91200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>27500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>15500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>4600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-23600</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U94" s="3">
         <v>0</v>
@@ -7854,8 +8084,11 @@
       <c r="AF94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7888,8 +8121,9 @@
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
       <c r="AF95" s="3"/>
-    </row>
-    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7980,8 +8214,11 @@
       <c r="AF96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -8072,8 +8309,11 @@
       <c r="AF97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -8164,8 +8404,11 @@
       <c r="AF98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8256,8 +8499,11 @@
       <c r="AF99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8268,76 +8514,76 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>14100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>29900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>161800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>24000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>22900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>112500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>10800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4700</v>
-      </c>
-      <c r="W100" s="3">
-        <v>300</v>
       </c>
       <c r="X100" s="3">
         <v>300</v>
       </c>
       <c r="Y100" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>4000</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
       <c r="AC100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="3">
         <v>-100</v>
@@ -8346,10 +8592,13 @@
         <v>-100</v>
       </c>
       <c r="AF100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AG100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8440,96 +8689,102 @@
       <c r="AF101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>23500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-37100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>33000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>28400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-1500</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AF102" s="3">
+      <c r="AG102" s="3">
         <v>-2800</v>
       </c>
     </row>
